--- a/Test Case.xlsx
+++ b/Test Case.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iryna_Orlivska\,homework\15.Smoke Ad hoc exploratory testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dowloand\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F69060-91C8-4178-A895-3FA8740B8465}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FF9867-5DE7-4A84-87DB-894A004F757E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5550" yWindow="1620" windowWidth="18735" windowHeight="11580" xr2:uid="{9FCA2507-1627-424B-9D32-DDF7FDA49A7D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{9FCA2507-1627-424B-9D32-DDF7FDA49A7D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Case(shedule page)" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Case(autorized and log in)" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +24,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="69">
   <si>
     <t>ID</t>
   </si>
@@ -55,13 +55,421 @@
   </si>
   <si>
     <t>Actual result</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Sub-module</t>
+  </si>
+  <si>
+    <t>Site "Planeta kino"</t>
+  </si>
+  <si>
+    <t>Schedule page</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Tickets should be added in the basket</t>
+  </si>
+  <si>
+    <t>1. Choose the movie 
+2. Choose session time
+3. Choose places
+4. Click to the button "Add to the basket" 
+5. Look at the result</t>
+  </si>
+  <si>
+    <t>Tickets shouldn`t be added in the basket</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>1. Choose the movie 
+2. Choose session time
+3. Choose places
+4. Look at the result</t>
+  </si>
+  <si>
+    <t>There is a selection of already reserved tickets as a guest on the schedule page by adding to the basket.</t>
+  </si>
+  <si>
+    <t>There is a selection ticket as a guest on the schedule page by adding to the basket.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choosing of already reserved tickets as a guest impossibly  </t>
+  </si>
+  <si>
+    <t>There is a choice and purchase a ticket as a guest on the schedule page by adding to the basket</t>
+  </si>
+  <si>
+    <t>Tickets should be purchase as a guest</t>
+  </si>
+  <si>
+    <t>Movie: "Alladin"
+Time: for today "13:00" 
+Format: 2D
+Language: Russian</t>
+  </si>
+  <si>
+    <t>Movie: "Alladin"
+Time: for tomorrow "13:00" 
+Format: 2D
+Language: Russian</t>
+  </si>
+  <si>
+    <t>There is a selection ticket as a authorized user on the schedule page by adding to the basket.</t>
+  </si>
+  <si>
+    <t>Movie: "Dark Phoenix"
+Time: for today "10:00" 
+Format: 2D
+Language: Russian</t>
+  </si>
+  <si>
+    <t>Movie: "Dark Phoenix"
+Time: for tomorrow "10:00" 
+Format: 2D
+Language: Russian</t>
+  </si>
+  <si>
+    <t>Movie: "Dark Phoenix"
+Time: for today "16:30" 
+Format: 3D
+Language: Ukrainian</t>
+  </si>
+  <si>
+    <t>Movie: "Dark Phoenix"
+Time: for tomorrow "16:30" 
+Format: 3D
+Language: Ukrainian</t>
+  </si>
+  <si>
+    <t>There is a choice and purchase a ticket as a authorized user on the schedule page by adding to the basket</t>
+  </si>
+  <si>
+    <t>Movie: "Dark Phoenix"
+Time: for today "13:00" 
+Format: 2D
+Language: Ukrainian</t>
+  </si>
+  <si>
+    <t>Cancel booking ticket as a guest on the shedule page by clicking on the cross</t>
+  </si>
+  <si>
+    <t>1. Choose the movie 
+2. Choose session time
+3. Choose places
+4. Click to the button "Add to the basket" 
+5. Click to the button "Buy as a guest"
+6. Click on the cross near the ticket
+5. Look at the result</t>
+  </si>
+  <si>
+    <t>Faill</t>
+  </si>
+  <si>
+    <t>Booking should be canceled.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Booking ticket as a guest on the shedule page still left </t>
+  </si>
+  <si>
+    <t>1. Choose the movie 
+2. Choose session time
+3. Choose places
+4. Click to the button "Add to the basket"
+5. Click to the button "I have glasses"
+6. Choose variant paying
+7. Look at the result</t>
+  </si>
+  <si>
+    <t>1. Choose the movie 
+2. Choose session time
+3. Choose places
+4. Click to the button "Add to the basket"
+5. Click to the button "Buy as a guest"
+6. Choose variant paying
+7. Look at the result</t>
+  </si>
+  <si>
+    <t>Cancel booking ticket as a autorized user on the shedule page by clicking on the cross</t>
+  </si>
+  <si>
+    <t>1. Choose the movie 
+2. Choose session time
+3. Choose places
+4. Click to the button "Add to the basket" 
+5. Click on the cross near the ticket
+6. Look at the result</t>
+  </si>
+  <si>
+    <t>Movie: "Dark Phoenix"
+Time: for today "10:00" 
+Format: 2D
+Language: Ukrainian</t>
+  </si>
+  <si>
+    <t>Booking the ticket still left
+(write bug report)</t>
+  </si>
+  <si>
+    <t>Movie: "Dark Phoenix"
+Time: for tomorrow "13:00" 
+Format: 2D
+Language: Ukrainian</t>
+  </si>
+  <si>
+    <t>There is register a user with valid data on the registration page by clicking "Authorization"</t>
+  </si>
+  <si>
+    <t>User should be registered</t>
+  </si>
+  <si>
+    <t>There is register a user with invalid data on the registration page by clicking "Authorization"</t>
+  </si>
+  <si>
+    <t>Autorization</t>
+  </si>
+  <si>
+    <t>1. Enter email
+2. Enter number phone
+3. Enter password
+4. Click the button "Next"
+5. Enter code from sms
+6. Click the button "Register"
+7. Look at the result</t>
+  </si>
+  <si>
+    <t>1. Enter email
+2. Enter number phone
+3. Enter password
+4. Click the button "Next"
+5. Look at the result</t>
+  </si>
+  <si>
+    <t>User shouldn`t be registered</t>
+  </si>
+  <si>
+    <t>User won`t be registered</t>
+  </si>
+  <si>
+    <t>User will be registered</t>
+  </si>
+  <si>
+    <t>1. Enter empty email
+2. Enter empty number phone
+3. Enter empty password
+4. Click the button "Next"
+5. Look at the result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email: 
+Phone: 
+Password: </t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be log in </t>
+  </si>
+  <si>
+    <t>There is login a user with valid data on the login page by clicking "Log in"</t>
+  </si>
+  <si>
+    <t>1. Enter email/number phone
+2. Enter password
+3. Click the button "Log in"
+4. Look at the result</t>
+  </si>
+  <si>
+    <t>User successfully log in</t>
+  </si>
+  <si>
+    <t>There is login a user with invalid data on the login page by clicking "Login"</t>
+  </si>
+  <si>
+    <t>1. Enter empty email/number phone
+2. Enter empty password
+3. Click the button "Log in"
+4. Look at the result</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Email: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+Phone: 
+Password: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>User shouldn`t be log in</t>
+  </si>
+  <si>
+    <t>User doesn`t log in</t>
+  </si>
+  <si>
+    <t>Email: irao14611@gmail.com
+Phone: 380994512976
+Password: masha9897</t>
+  </si>
+  <si>
+    <t>Email: irao14611@gmail.com
+Phone: 380994512976
+Password: masha9898</t>
+  </si>
+  <si>
+    <r>
+      <t>Email: irao14611@gmail.com</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+Phone: 380994512976
+Password: masha9897</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Email: irao@gmail.com</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+Phone: 38049451297
+Password: ma</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,8 +485,46 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -87,12 +533,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -115,20 +579,213 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -144,9 +801,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -184,7 +841,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -290,7 +947,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -440,103 +1097,652 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C09F037-5C09-4B66-8D3C-0F61C80E2ADE}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="21.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="27" style="1" customWidth="1"/>
+    <col min="6" max="7" width="20.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="2" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" spans="1:10" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="1:10" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" ht="139.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="B6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="69" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" ht="136.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15">
+        <v>11</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E8F7A1-9C80-4BF2-B020-A684482D3318}">
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.44140625" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
+    <col min="6" max="6" width="26.77734375" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" customWidth="1"/>
+    <col min="8" max="8" width="21.21875" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="22"/>
+    </row>
+    <row r="3" spans="1:10" ht="69" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="14"/>
+    </row>
+    <row r="4" spans="1:10" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="1:10" ht="69" x14ac:dyDescent="0.3">
+      <c r="A5" s="21">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="22"/>
+    </row>
+    <row r="6" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
+        <v>5</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="1:10" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="23">
+        <v>6</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="25"/>
+      <c r="J7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Case.xlsx
+++ b/Test Case.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dowloand\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\Microsoft.SkypeApp_kzf8qxf38zg5c!App\All\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FF9867-5DE7-4A84-87DB-894A004F757E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57D3809-52BE-401C-9223-29B38CB8D631}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{9FCA2507-1627-424B-9D32-DDF7FDA49A7D}"/>
+    <workbookView xWindow="4116" yWindow="2268" windowWidth="17280" windowHeight="9420" activeTab="1" xr2:uid="{9FCA2507-1627-424B-9D32-DDF7FDA49A7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Case(shedule page)" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="70">
   <si>
     <t>ID</t>
   </si>
@@ -456,20 +456,15 @@
       <t/>
     </r>
   </si>
+  <si>
+    <t>User shouldn`t be registered guest</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -705,82 +700,82 @@
   </cellStyleXfs>
   <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1515,8 +1510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E8F7A1-9C80-4BF2-B020-A684482D3318}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1614,7 +1609,7 @@
         <v>66</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>51</v>
@@ -1741,7 +1736,7 @@
       <c r="J7" s="26"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
